--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06438733333333334</v>
+        <v>0.044816</v>
       </c>
       <c r="H2">
-        <v>0.193162</v>
+        <v>0.134448</v>
       </c>
       <c r="I2">
-        <v>0.0549579582800693</v>
+        <v>0.031000309200692</v>
       </c>
       <c r="J2">
-        <v>0.0549579582800693</v>
+        <v>0.031000309200692</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.7415638129364445</v>
+        <v>0.5161562394346667</v>
       </c>
       <c r="R2">
-        <v>6.674074316427999</v>
+        <v>4.645406154912</v>
       </c>
       <c r="S2">
-        <v>0.0549579582800693</v>
+        <v>0.031000309200692</v>
       </c>
       <c r="T2">
-        <v>0.0549579582800693</v>
+        <v>0.031000309200692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>2.467336</v>
       </c>
       <c r="I3">
-        <v>0.7020001291709189</v>
+        <v>0.5689052935112355</v>
       </c>
       <c r="J3">
-        <v>0.702000129170919</v>
+        <v>0.5689052935112355</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>85.25063846718399</v>
       </c>
       <c r="S3">
-        <v>0.7020001291709189</v>
+        <v>0.5689052935112355</v>
       </c>
       <c r="T3">
-        <v>0.702000129170919</v>
+        <v>0.5689052935112355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2847416666666667</v>
+        <v>0.5784016666666667</v>
       </c>
       <c r="H4">
-        <v>0.854225</v>
+        <v>1.735205</v>
       </c>
       <c r="I4">
-        <v>0.2430419125490117</v>
+        <v>0.4000943972880724</v>
       </c>
       <c r="J4">
-        <v>0.2430419125490117</v>
+        <v>0.4000943972880724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.279435645238889</v>
+        <v>6.661585798585556</v>
       </c>
       <c r="R4">
-        <v>29.51492080715</v>
+        <v>59.95427218727</v>
       </c>
       <c r="S4">
-        <v>0.2430419125490117</v>
+        <v>0.4000943972880724</v>
       </c>
       <c r="T4">
-        <v>0.2430419125490117</v>
+        <v>0.4000943972880724</v>
       </c>
     </row>
   </sheetData>
